--- a/QA Challenge.xlsx
+++ b/QA Challenge.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\f3rnand0\Desktop\Bluethoo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\f3rnand0\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6D33B1-A627-4105-A9D5-283EF01F1B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA25DE96-AF9F-4397-BD98-599EB5FCEC10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{221F1D02-C976-43E1-9A2B-6A78B374D30F}"/>
   </bookViews>
@@ -63,75 +63,39 @@
     <t>Importancia</t>
   </si>
   <si>
-    <t>Fecha revision 1</t>
-  </si>
-  <si>
     <t>Observaciones Revisión 1</t>
   </si>
   <si>
-    <t>Evidencia revision 1</t>
-  </si>
-  <si>
     <t>PWP-001</t>
   </si>
   <si>
     <t>PWP-002</t>
   </si>
   <si>
-    <t>No se debera de crear la cuenta y se mostrara el mensage de llenar la celda "Nombre(S)".</t>
-  </si>
-  <si>
     <t>PWP-003</t>
   </si>
   <si>
-    <t>No se debera de crear la cuenta y se mostrara el mensage de llenar la celda "Apellidos".</t>
-  </si>
-  <si>
     <t>PWP-004</t>
   </si>
   <si>
-    <t>No se debera de crear la cuenta y se mostrara el mensage de llenar la celda "Correo electrónico".</t>
-  </si>
-  <si>
     <t>PWP-005</t>
   </si>
   <si>
-    <t>No se debera de crear la cuenta y se mostrara el mensage de llenar la celda "Contraseña".</t>
-  </si>
-  <si>
     <t>PWP-006</t>
   </si>
   <si>
-    <t>Verificar funcionamiento de boton de visualización de contraseña ubicado en el combo "Contraseña".</t>
-  </si>
-  <si>
-    <t>Se debera de mostrar la contraseña dando clic en el visor del combo.</t>
-  </si>
-  <si>
     <t>PWP-007</t>
   </si>
   <si>
     <t>PWP-008</t>
   </si>
   <si>
-    <t>Dejar la casilla de "Terminos y condiciones" apagada.</t>
-  </si>
-  <si>
-    <t>No se debera de crear la cuenta y se mostrara el mensage de encender la casilla de "Terminos y condiciones"</t>
-  </si>
-  <si>
     <t>PWP-009</t>
   </si>
   <si>
-    <t>Se habilitara el botón "Registrate"</t>
-  </si>
-  <si>
     <t>PWP-010</t>
   </si>
   <si>
-    <t>No se habilitara el botón "Registrate"</t>
-  </si>
-  <si>
     <t>PWP-011</t>
   </si>
   <si>
@@ -180,12 +144,6 @@
     <t>Fernando Pérez</t>
   </si>
   <si>
-    <t>Llenar formulario dejando espacios vacios.</t>
-  </si>
-  <si>
-    <t>No se debera de crear la cuenta y no se habilitara el botón " Registrate".</t>
-  </si>
-  <si>
     <t>Aprobado</t>
   </si>
   <si>
@@ -195,51 +153,18 @@
     <t>OK</t>
   </si>
   <si>
-    <t>Llenar formulario dejando el combo "Nombre(s)" vacio.</t>
-  </si>
-  <si>
-    <t>Se recomienda añadir la leyenda campo requerido al momento de dejar campos vacios marcados con *.</t>
-  </si>
-  <si>
-    <t>Llenar formulario dejando el combo "Apellidos" vacio.</t>
-  </si>
-  <si>
     <t>No aprobado</t>
   </si>
   <si>
     <t>Alta</t>
   </si>
   <si>
-    <t>Llenar formulario dejando el combo "Correo electrónico" vacio.</t>
-  </si>
-  <si>
-    <t>Llenar formulario dejando el combo "Contraseña" vacio.</t>
-  </si>
-  <si>
-    <t>Llenar formulario dejando el combo "Confirmación de contraseña" vacio.</t>
-  </si>
-  <si>
-    <t>No se debera de habilitar el botón "Registrate" y se mostrara el mensage de llenar la celda "Confirmación de contraseña".</t>
-  </si>
-  <si>
     <t>Media</t>
   </si>
   <si>
-    <t>Se recomienda añadir la leyenda campo requerido al momento de no enceder la casilla.</t>
-  </si>
-  <si>
     <t>Llenar formulario colocando la información correcta requerida en cada combo marcado con *.</t>
   </si>
   <si>
-    <t>Llenar formulario colocando la información requerida en cada combo marcado con * y dejar la casilla de terminos y condiciones apagada.</t>
-  </si>
-  <si>
-    <t>Habilitar boton "Registrate" con datos correctos y generar envio de información.</t>
-  </si>
-  <si>
-    <t>Se envia correo de verificación para crear cuenta.</t>
-  </si>
-  <si>
     <t>https://app.walopay.com/home</t>
   </si>
   <si>
@@ -262,6 +187,81 @@
   </si>
   <si>
     <t>Detalle de Transacción</t>
+  </si>
+  <si>
+    <t>Llenar formulario dejando el combo "Nombre(s)" vacío.</t>
+  </si>
+  <si>
+    <t>No se deberá de crear la cuenta y se mostrara el mensaje de llenar la celda "Nombre(S)".</t>
+  </si>
+  <si>
+    <t>Se recomienda añadir la leyenda campo requerido al momento de dejar campos vacíos marcados con *.</t>
+  </si>
+  <si>
+    <t>Llenar formulario dejando el combo "Apellidos" vacío.</t>
+  </si>
+  <si>
+    <t>No se deberá de crear la cuenta y se mostrara el mensaje de llenar la celda "Apellidos".</t>
+  </si>
+  <si>
+    <t>Llenar formulario dejando el combo "Correo electrónico" vacío.</t>
+  </si>
+  <si>
+    <t>No se deberá de crear la cuenta y se mostrara el mensaje de llenar la celda "Correo electrónico".</t>
+  </si>
+  <si>
+    <t>Llenar formulario dejando el combo "Contraseña" vacío.</t>
+  </si>
+  <si>
+    <t>No se deberá de crear la cuenta y se mostrara el mensaje de llenar la celda "Contraseña".</t>
+  </si>
+  <si>
+    <t>Verificar funcionamiento de botón de visualización de contraseña ubicado en el combo "Contraseña".</t>
+  </si>
+  <si>
+    <t>Se deberá de mostrar la contraseña dando clic en el visor del combo.</t>
+  </si>
+  <si>
+    <t>Llenar formulario dejando el combo "Confirmación de contraseña" vacío.</t>
+  </si>
+  <si>
+    <t>No se deberá de habilitar el botón "Regístrate" y se mostrara el mensaje de llenar la celda "Confirmación de contraseña".</t>
+  </si>
+  <si>
+    <t>Dejar la casilla de "Términos y condiciones" apagada.</t>
+  </si>
+  <si>
+    <t>No se deberá de crear la cuenta y se mostrara el mensaje de encender la casilla de "Términos y condiciones"</t>
+  </si>
+  <si>
+    <t>Se recomienda añadir la leyenda campo requerido al momento de no encender la casilla.</t>
+  </si>
+  <si>
+    <t>Se habilitara el botón "Regístrate"</t>
+  </si>
+  <si>
+    <t>Llenar formulario colocando la información requerida en cada combo marcado con * y dejar la casilla de términos y condiciones apagada.</t>
+  </si>
+  <si>
+    <t>No se habilitara el botón "Regístrate"</t>
+  </si>
+  <si>
+    <t>Habilitar botón "Regístrate" con datos correctos y generar envió de información.</t>
+  </si>
+  <si>
+    <t>Se envía correo de verificación para crear cuenta.</t>
+  </si>
+  <si>
+    <t>Fecha revisión 1</t>
+  </si>
+  <si>
+    <t>Evidencia revisión 1</t>
+  </si>
+  <si>
+    <t>Llenar formulario dejando espacios vacíos.</t>
+  </si>
+  <si>
+    <t>No se deberá de crear la cuenta y no se habilitara el botón " Regístrate".</t>
   </si>
 </sst>
 </file>
@@ -420,6 +420,243 @@
   </cellStyles>
   <dxfs count="15">
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -452,243 +689,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
       </border>
     </dxf>
   </dxfs>
@@ -1590,21 +1590,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD825BCC-E599-4302-B678-C6244B69DF95}" name="Tabla1" displayName="Tabla1" ref="A1:L17" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="13" tableBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD825BCC-E599-4302-B678-C6244B69DF95}" name="Tabla1" displayName="Tabla1" ref="A1:L17" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12">
   <autoFilter ref="A1:L17" xr:uid="{DD825BCC-E599-4302-B678-C6244B69DF95}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{CC93C2EB-E1AB-48DF-A285-310FA8A109B6}" name="ID" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{CF964EF5-0AED-4980-A857-C98BB08A36E2}" name="Proceso" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{DBD867AE-EBFE-436D-B3F2-2326B96C49F2}" name="Acción/servicio en pantalla" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{8D6E0F35-E2ED-4E8F-B63F-D5EF9379E005}" name="Actividad" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{A7CEE5D8-EE21-4E30-BFF0-705CDDFC7528}" name="Resultado esperado" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{2D0FA726-D746-4A34-BEBF-4FC21A16F7B3}" name="Tester" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{7DA8DAAA-7166-40C7-81DF-D5ED6E9C94E5}" name="Estatus" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{36EC167D-A25A-41AD-BA11-7AD10C2D24BF}" name="Numero de revisiones" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{6FC4004E-0ECB-43EF-B134-AF3A062FDDF7}" name="Importancia" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{CF61B297-868D-4DCB-9135-3F467FB27E15}" name="Fecha revision 1" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{240FB0C0-8C1F-4B07-A71E-4E9FD397E80B}" name="Observaciones Revisión 1" dataDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{0413E5A5-CBC8-4C2D-9AF7-8A7D6C5E72B7}" name="Evidencia revision 1" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{CC93C2EB-E1AB-48DF-A285-310FA8A109B6}" name="ID" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{CF964EF5-0AED-4980-A857-C98BB08A36E2}" name="Proceso" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{DBD867AE-EBFE-436D-B3F2-2326B96C49F2}" name="Acción/servicio en pantalla" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{8D6E0F35-E2ED-4E8F-B63F-D5EF9379E005}" name="Actividad" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{A7CEE5D8-EE21-4E30-BFF0-705CDDFC7528}" name="Resultado esperado" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{2D0FA726-D746-4A34-BEBF-4FC21A16F7B3}" name="Tester" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{7DA8DAAA-7166-40C7-81DF-D5ED6E9C94E5}" name="Estatus" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{36EC167D-A25A-41AD-BA11-7AD10C2D24BF}" name="Numero de revisiones" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{6FC4004E-0ECB-43EF-B134-AF3A062FDDF7}" name="Importancia" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{CF61B297-868D-4DCB-9135-3F467FB27E15}" name="Fecha revisión 1" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{240FB0C0-8C1F-4B07-A71E-4E9FD397E80B}" name="Observaciones Revisión 1" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{0413E5A5-CBC8-4C2D-9AF7-8A7D6C5E72B7}" name="Evidencia revisión 1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1909,8 +1909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E92878-2155-4ACB-AC36-8044C592238A}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="75" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1958,566 +1958,566 @@
         <v>8</v>
       </c>
       <c r="J1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
-        <v>10</v>
-      </c>
       <c r="L1" s="8" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H2" s="2">
         <v>1</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="J2" s="6">
         <v>44936</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" ht="187.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="H3" s="2">
         <v>1</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="J3" s="6">
         <v>44936</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" ht="229.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H4" s="2">
         <v>1</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="J4" s="6">
         <v>44936</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="201" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H5" s="2">
         <v>1</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="J5" s="6">
         <v>44936</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="215.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="F6" s="3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="H6" s="2">
         <v>1</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="J6" s="6">
         <v>44936</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" ht="282" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H7" s="2">
         <v>1</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="J7" s="6">
         <v>44936</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" ht="253.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H8" s="2">
         <v>1</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="J8" s="6">
         <v>44936</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" ht="221.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="H9" s="2">
         <v>1</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="J9" s="6">
         <v>44936</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="246.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H10" s="2">
         <v>1</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="J10" s="6">
         <v>44936</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" ht="231" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H11" s="2">
         <v>1</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="J11" s="6">
         <v>44936</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H12" s="2">
         <v>1</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="J12" s="6">
         <v>44936</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="242.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F13" s="3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="H13" s="2">
         <v>1</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="J13" s="6">
         <v>44936</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" ht="278.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="G14" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H14" s="2">
         <v>1</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="J14" s="6">
         <v>44936</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="362.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="H15" s="2">
         <v>1</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="J15" s="6">
         <v>44936</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" ht="368.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H16" s="2">
         <v>1</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="J16" s="6">
         <v>44936</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" ht="366" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H17" s="2">
         <v>1</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="J17" s="6">
         <v>44936</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="L17" s="2"/>
     </row>
